--- a/static/schedule/Pасписание/2 марта 2024 суббота.xlsx
+++ b/static/schedule/Pасписание/2 марта 2024 суббота.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
   <si>
     <t>Согласовано:</t>
   </si>
@@ -231,25 +231,12 @@
 Берендеева О.С</t>
   </si>
   <si>
-    <t xml:space="preserve">Финансовый контроль деятельности экономического субъекта
-Неживая А.Э
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 марта 2024 (суббота) 
-</t>
-  </si>
-  <si>
     <t>Разработка программных модулей
 Горелов А.С.</t>
   </si>
   <si>
     <t>Разработка программных модулей
 Говезин Е.А.</t>
-  </si>
-  <si>
-    <t>Иностранный язык
-Коротина М.А.</t>
   </si>
   <si>
     <t>Физическая культура
@@ -350,6 +337,17 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 марта 2024 (суббота) </t>
+  </si>
+  <si>
+    <t>Иностранный язык в профессиональной деятельности
+Коротина М.А.</t>
+  </si>
+  <si>
+    <t>Финансовый контроль деятельности экономического субъекта
+Неживая А.Э</t>
   </si>
 </sst>
 </file>
@@ -1592,13 +1590,13 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
@@ -1631,7 +1629,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="63" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
@@ -1701,7 +1699,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="33" t="s">
@@ -1718,10 +1716,10 @@
         <v>37</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="45"/>
       <c r="R3" s="27"/>
@@ -1736,18 +1734,18 @@
       <c r="C4" s="45"/>
       <c r="D4" s="33"/>
       <c r="E4" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="33"/>
       <c r="I4" s="45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K4" s="39"/>
       <c r="L4" s="33"/>
@@ -1757,16 +1755,16 @@
         <v>55</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="45" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1777,21 +1775,21 @@
         <v>38</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="20"/>
       <c r="G5" s="45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K5" s="50"/>
       <c r="L5" s="33"/>
@@ -1799,7 +1797,7 @@
         <v>38</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O5" s="39" t="s">
         <v>37</v>
@@ -1811,10 +1809,10 @@
         <v>51</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1822,24 +1820,24 @@
         <v>46</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="33"/>
       <c r="G6" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I6" s="45" t="s">
         <v>58</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="33"/>
@@ -1847,7 +1845,7 @@
         <v>38</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O6" s="48"/>
       <c r="P6" s="33"/>
@@ -1855,10 +1853,10 @@
         <v>51</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1869,7 +1867,7 @@
         <v>57</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="33" t="s">
@@ -1879,7 +1877,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I7" s="39" t="s">
         <v>37</v>
@@ -1891,7 +1889,7 @@
         <v>38</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M7" s="48"/>
       <c r="N7" s="33"/>
@@ -1912,10 +1910,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>37</v>
@@ -1927,7 +1925,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>37</v>
@@ -1936,10 +1934,10 @@
         <v>37</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M8" s="50" t="s">
         <v>37</v>
@@ -2003,7 +2001,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="33"/>
@@ -2011,13 +2009,13 @@
         <v>39</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="33"/>
@@ -2031,7 +2029,7 @@
         <v>56</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="48"/>
       <c r="R10" s="33"/>
@@ -2053,7 +2051,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="33"/>
@@ -2061,19 +2059,19 @@
         <v>39</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>52</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M11" s="49" t="s">
         <v>37</v>
@@ -2085,7 +2083,7 @@
         <v>56</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="48"/>
       <c r="R11" s="33"/>
@@ -2096,7 +2094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2105,7 @@
         <v>60</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="33"/>
@@ -2115,19 +2113,19 @@
         <v>39</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M12" s="45" t="s">
         <v>37</v>
@@ -2139,7 +2137,7 @@
         <v>56</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="48"/>
       <c r="R12" s="33"/>
@@ -2150,7 +2148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2160,10 +2158,10 @@
       <c r="C13" s="45"/>
       <c r="D13" s="33"/>
       <c r="E13" s="45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>37</v>
@@ -2174,16 +2172,16 @@
       <c r="I13" s="21"/>
       <c r="J13" s="33"/>
       <c r="K13" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M13" s="48" t="s">
         <v>39</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O13" s="48"/>
       <c r="P13" s="33"/>
@@ -2191,7 +2189,7 @@
         <v>56</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S13" s="58" t="s">
         <v>37</v>
@@ -2217,7 +2215,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="50" t="s">
         <v>37</v>
@@ -2241,7 +2239,7 @@
         <v>39</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O14" s="48"/>
       <c r="P14" s="33"/>
@@ -2249,7 +2247,7 @@
         <v>56</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S14" s="58" t="s">
         <v>37</v>
@@ -2268,7 +2266,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" s="49" t="s">
         <v>37</v>
@@ -2292,7 +2290,7 @@
         <v>39</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O15" s="48"/>
       <c r="P15" s="33"/>
@@ -2300,7 +2298,7 @@
         <v>56</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2339,7 +2337,7 @@
       </c>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:19" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -2350,46 +2348,46 @@
         <v>53</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="33" t="s">
         <v>83</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="39" t="s">
         <v>50</v>
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="48"/>
       <c r="R17" s="33"/>
     </row>
-    <row r="18" spans="1:19" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2400,31 +2398,31 @@
         <v>53</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I18" s="45" t="s">
         <v>62</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M18" s="48" t="s">
         <v>37</v>
@@ -2433,19 +2431,19 @@
         <v>37</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -2453,16 +2451,16 @@
         <v>45</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="33"/>
@@ -2470,13 +2468,13 @@
         <v>62</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M19" s="48" t="s">
         <v>37</v>
@@ -2487,13 +2485,13 @@
       <c r="O19" s="48"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="48" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -2510,17 +2508,21 @@
         <v>36</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>85</v>
+      </c>
       <c r="K20" s="21" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M20" s="48" t="s">
         <v>37</v>
@@ -2534,7 +2536,7 @@
         <v>40</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2570,10 +2572,10 @@
         <v>40</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>7</v>
       </c>
@@ -2639,7 +2641,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -2647,22 +2649,22 @@
         <v>31</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G24" s="51" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="38"/>
@@ -2676,7 +2678,7 @@
       <c r="R24" s="33"/>
       <c r="S24" s="41"/>
     </row>
-    <row r="25" spans="1:19" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -2687,19 +2689,19 @@
         <v>54</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G25" s="51" t="s">
         <v>36</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="38"/>
@@ -2712,7 +2714,7 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:19" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
@@ -2720,22 +2722,22 @@
         <v>45</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G26" s="51" t="s">
         <v>36</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="38"/>
@@ -2762,16 +2764,16 @@
         <v>37</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G27" s="51" t="s">
         <v>36</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="38"/>

--- a/static/schedule/Pасписание/2 марта 2024 суббота.xlsx
+++ b/static/schedule/Pасписание/2 марта 2024 суббота.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="99">
   <si>
     <t>Согласовано:</t>
   </si>
@@ -173,10 +173,6 @@
   </si>
   <si>
     <t>17.15-18.50</t>
-  </si>
-  <si>
-    <t>Инструментальные средства разработки программного обеспечения
-Говезин Е.А.</t>
   </si>
   <si>
     <t>Производственная практика</t>
@@ -348,6 +344,24 @@
   <si>
     <t>Финансовый контроль деятельности экономического субъекта
 Неживая А.Э</t>
+  </si>
+  <si>
+    <t>Организация и планирование налоговой деятельности
+1 час
+Организация и планирование налоговой деятельности
+1 час Самостоятельная работа
+Кузина П.В.</t>
+  </si>
+  <si>
+    <t>Организация и планирование налоговой деятельности
+Самостоятельная работа
+Кузина П.В.</t>
+  </si>
+  <si>
+    <t>Организация и планирование налоговой деятельности
+Самостоятельная работа
+1 час
+Кузина П.В.</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1604,8 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1643,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
@@ -1699,7 +1713,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="33" t="s">
@@ -1716,10 +1730,10 @@
         <v>37</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="45"/>
       <c r="R3" s="27"/>
@@ -1734,34 +1748,34 @@
       <c r="C4" s="45"/>
       <c r="D4" s="33"/>
       <c r="E4" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="33"/>
       <c r="I4" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="39"/>
       <c r="L4" s="33"/>
       <c r="M4" s="39"/>
       <c r="N4" s="33"/>
       <c r="O4" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1775,21 +1789,21 @@
         <v>38</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="20"/>
       <c r="G5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J5" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" s="50"/>
       <c r="L5" s="33"/>
@@ -1797,7 +1811,7 @@
         <v>38</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" s="39" t="s">
         <v>37</v>
@@ -1806,10 +1820,10 @@
         <v>37</v>
       </c>
       <c r="Q5" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1820,40 +1834,44 @@
         <v>46</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="33"/>
       <c r="G6" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="33"/>
+        <v>79</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>86</v>
+      </c>
       <c r="M6" s="48" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O6" s="48"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1864,20 +1882,20 @@
         <v>47</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="39" t="s">
         <v>37</v>
@@ -1889,7 +1907,7 @@
         <v>38</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M7" s="48"/>
       <c r="N7" s="33"/>
@@ -1910,10 +1928,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>37</v>
@@ -1925,7 +1943,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>37</v>
@@ -1934,10 +1952,10 @@
         <v>37</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="M8" s="50" t="s">
         <v>37</v>
@@ -2001,7 +2019,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="33"/>
@@ -2009,13 +2027,13 @@
         <v>39</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="33"/>
@@ -2026,10 +2044,10 @@
         <v>37</v>
       </c>
       <c r="O10" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="48"/>
       <c r="R10" s="33"/>
@@ -2051,7 +2069,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="33"/>
@@ -2059,20 +2077,20 @@
         <v>39</v>
       </c>
       <c r="H11" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>92</v>
-      </c>
       <c r="M11" s="49" t="s">
         <v>37</v>
       </c>
@@ -2080,10 +2098,10 @@
         <v>37</v>
       </c>
       <c r="O11" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="48"/>
       <c r="R11" s="33"/>
@@ -2102,10 +2120,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="33"/>
@@ -2113,19 +2131,19 @@
         <v>39</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M12" s="45" t="s">
         <v>37</v>
@@ -2134,10 +2152,10 @@
         <v>37</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="48"/>
       <c r="R12" s="33"/>
@@ -2158,10 +2176,10 @@
       <c r="C13" s="45"/>
       <c r="D13" s="33"/>
       <c r="E13" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>37</v>
@@ -2172,24 +2190,24 @@
       <c r="I13" s="21"/>
       <c r="J13" s="33"/>
       <c r="K13" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M13" s="48" t="s">
         <v>39</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O13" s="48"/>
       <c r="P13" s="33"/>
       <c r="Q13" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S13" s="58" t="s">
         <v>37</v>
@@ -2212,10 +2230,10 @@
         <v>37</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="50" t="s">
         <v>37</v>
@@ -2239,15 +2257,15 @@
         <v>39</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O14" s="48"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S14" s="58" t="s">
         <v>37</v>
@@ -2263,10 +2281,10 @@
       <c r="C15" s="48"/>
       <c r="D15" s="33"/>
       <c r="E15" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="49" t="s">
         <v>37</v>
@@ -2290,15 +2308,15 @@
         <v>39</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O15" s="48"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2345,22 +2363,22 @@
         <v>31</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="45" t="s">
         <v>37</v>
@@ -2369,25 +2387,29 @@
         <v>37</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="33"/>
-    </row>
-    <row r="18" spans="1:19" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2395,55 +2417,55 @@
         <v>32</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:19" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -2451,30 +2473,30 @@
         <v>45</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>83</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>84</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="33"/>
       <c r="I19" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19" s="48" t="s">
         <v>37</v>
@@ -2485,13 +2507,13 @@
       <c r="O19" s="48"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -2505,24 +2527,24 @@
         <v>37</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="33"/>
       <c r="I20" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M20" s="48" t="s">
         <v>37</v>
@@ -2532,14 +2554,14 @@
       </c>
       <c r="O20" s="51"/>
       <c r="P20" s="33"/>
-      <c r="Q20" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -2548,8 +2570,12 @@
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="33"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="E21" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>83</v>
+      </c>
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47" t="s">
@@ -2568,12 +2594,8 @@
       </c>
       <c r="O21" s="51"/>
       <c r="P21" s="33"/>
-      <c r="Q21" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>87</v>
-      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="33"/>
     </row>
     <row r="22" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
@@ -2608,12 +2630,8 @@
       <c r="P22" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="R22" s="20" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
@@ -2649,22 +2667,22 @@
         <v>31</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="G24" s="51" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="38"/>
@@ -2686,22 +2704,22 @@
         <v>32</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G25" s="51" t="s">
         <v>36</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="38"/>
@@ -2714,7 +2732,7 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:19" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
@@ -2722,22 +2740,22 @@
         <v>45</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="38"/>
@@ -2750,7 +2768,7 @@
       <c r="Q26" s="53"/>
       <c r="R26" s="59"/>
     </row>
-    <row r="27" spans="1:19" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -2764,16 +2782,16 @@
         <v>37</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="38"/>
@@ -2786,7 +2804,7 @@
       <c r="Q27" s="54"/>
       <c r="R27" s="60"/>
     </row>
-    <row r="28" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
@@ -2806,10 +2824,10 @@
         <v>37</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="20"/>

--- a/static/schedule/Pасписание/2 марта 2024 суббота.xlsx
+++ b/static/schedule/Pасписание/2 марта 2024 суббота.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="100">
   <si>
     <t>Согласовано:</t>
   </si>
@@ -362,6 +362,11 @@
 Самостоятельная работа
 1 час
 Кузина П.В.</t>
+  </si>
+  <si>
+    <t>Иностранный язык в профессиональной деятельности
+Диф зачет
+Коротина М.А.</t>
   </si>
 </sst>
 </file>
@@ -1604,8 +1609,8 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,7 +2715,7 @@
         <v>86</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>76</v>
